--- a/MacroInputs.xlsx
+++ b/MacroInputs.xlsx
@@ -528,7 +528,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.374728</t>
+          <t>2025-08-21T18:10:09.913587</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.374728</t>
+          <t>2025-08-21T18:10:09.914587</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.374728</t>
+          <t>2025-08-21T18:10:09.914587</t>
         </is>
       </c>
     </row>
@@ -663,7 +663,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.375729</t>
+          <t>2025-08-21T18:10:09.914587</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.375729</t>
+          <t>2025-08-21T18:10:09.914587</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.375729</t>
+          <t>2025-08-21T18:10:09.915592</t>
         </is>
       </c>
     </row>
@@ -798,7 +798,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.375729</t>
+          <t>2025-08-21T18:10:09.915592</t>
         </is>
       </c>
     </row>
@@ -843,7 +843,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.407748</t>
+          <t>2025-08-21T18:10:09.927591</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.376732</t>
+          <t>2025-08-21T18:10:09.915592</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.407748</t>
+          <t>2025-08-21T18:10:09.927591</t>
         </is>
       </c>
     </row>
@@ -978,7 +978,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.376732</t>
+          <t>2025-08-21T18:10:09.915592</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.408736</t>
+          <t>2025-08-21T18:10:09.927591</t>
         </is>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.376732</t>
+          <t>2025-08-21T18:10:09.915592</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.410728</t>
+          <t>2025-08-21T18:10:09.927591</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.378730</t>
+          <t>2025-08-21T18:10:09.915592</t>
         </is>
       </c>
     </row>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.410728</t>
+          <t>2025-08-21T18:10:09.927591</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.379730</t>
+          <t>2025-08-21T18:10:09.916590</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.411728</t>
+          <t>2025-08-21T18:10:09.927591</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.380741</t>
+          <t>2025-08-21T18:10:09.916590</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.411728</t>
+          <t>2025-08-21T18:10:09.927591</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.380741</t>
+          <t>2025-08-21T18:10:09.916590</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.412727</t>
+          <t>2025-08-21T18:10:09.927591</t>
         </is>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.381731</t>
+          <t>2025-08-21T18:10:09.916590</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.412727</t>
+          <t>2025-08-21T18:10:09.927591</t>
         </is>
       </c>
     </row>
@@ -1608,7 +1608,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.381731</t>
+          <t>2025-08-21T18:10:09.916590</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.412727</t>
+          <t>2025-08-21T18:10:09.927591</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.381731</t>
+          <t>2025-08-21T18:10:09.916590</t>
         </is>
       </c>
     </row>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.412727</t>
+          <t>2025-08-21T18:10:09.927591</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.382745</t>
+          <t>2025-08-21T18:10:09.916590</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.412727</t>
+          <t>2025-08-21T18:10:09.927591</t>
         </is>
       </c>
     </row>
@@ -1878,7 +1878,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.383728</t>
+          <t>2025-08-21T18:10:09.917608</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.413730</t>
+          <t>2025-08-21T18:10:09.928589</t>
         </is>
       </c>
     </row>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.383728</t>
+          <t>2025-08-21T18:10:09.918600</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.413730</t>
+          <t>2025-08-21T18:10:09.928589</t>
         </is>
       </c>
     </row>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.383728</t>
+          <t>2025-08-21T18:10:09.919626</t>
         </is>
       </c>
     </row>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.414728</t>
+          <t>2025-08-21T18:10:09.928589</t>
         </is>
       </c>
     </row>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.384733</t>
+          <t>2025-08-21T18:10:09.920616</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.415730</t>
+          <t>2025-08-21T18:10:09.928589</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.384733</t>
+          <t>2025-08-21T18:10:09.920616</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.415730</t>
+          <t>2025-08-21T18:10:09.928589</t>
         </is>
       </c>
     </row>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.385731</t>
+          <t>2025-08-21T18:10:09.920616</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.417731</t>
+          <t>2025-08-21T18:10:09.928589</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.385731</t>
+          <t>2025-08-21T18:10:09.920616</t>
         </is>
       </c>
     </row>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.418729</t>
+          <t>2025-08-21T18:10:09.928589</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.386743</t>
+          <t>2025-08-21T18:10:09.921593</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.418729</t>
+          <t>2025-08-21T18:10:09.928589</t>
         </is>
       </c>
     </row>
@@ -2598,7 +2598,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.387743</t>
+          <t>2025-08-21T18:10:09.921593</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.419730</t>
+          <t>2025-08-21T18:10:09.928589</t>
         </is>
       </c>
     </row>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.388735</t>
+          <t>2025-08-21T18:10:09.921593</t>
         </is>
       </c>
     </row>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.419730</t>
+          <t>2025-08-21T18:10:09.928589</t>
         </is>
       </c>
     </row>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.388735</t>
+          <t>2025-08-21T18:10:09.921593</t>
         </is>
       </c>
     </row>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.419730</t>
+          <t>2025-08-21T18:10:09.928589</t>
         </is>
       </c>
     </row>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.389739</t>
+          <t>2025-08-21T18:10:09.921593</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.419730</t>
+          <t>2025-08-21T18:10:09.928589</t>
         </is>
       </c>
     </row>
@@ -2958,7 +2958,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.390755</t>
+          <t>2025-08-21T18:10:09.921593</t>
         </is>
       </c>
     </row>
@@ -2974,7 +2974,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>259.0142</v>
+        <v>261.76</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.252509</t>
+          <t>2025-08-21T18:10:09.811484</t>
         </is>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>237.4363</v>
+        <v>284.8221</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.252509</t>
+          <t>2025-08-21T18:10:09.811484</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>353.3812</v>
+        <v>325.9818</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.252509</t>
+          <t>2025-08-21T18:10:09.811484</t>
         </is>
       </c>
     </row>
@@ -3109,7 +3109,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>259.5182</v>
+        <v>338.8766</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.252509</t>
+          <t>2025-08-21T18:10:09.811484</t>
         </is>
       </c>
     </row>
@@ -3154,7 +3154,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>316.0699</v>
+        <v>270.2646</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.253506</t>
+          <t>2025-08-21T18:10:09.811484</t>
         </is>
       </c>
     </row>
@@ -3199,7 +3199,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>221.9637</v>
+        <v>280.7695</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.253506</t>
+          <t>2025-08-21T18:10:09.812482</t>
         </is>
       </c>
     </row>
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>286.6678</v>
+        <v>304.5531</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.253506</t>
+          <t>2025-08-21T18:10:09.812482</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>31.5297</v>
+        <v>4.1457</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.268503</t>
+          <t>2025-08-21T18:10:09.827485</t>
         </is>
       </c>
     </row>
@@ -3334,7 +3334,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>290.5439</v>
+        <v>265.9057</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.253506</t>
+          <t>2025-08-21T18:10:09.812482</t>
         </is>
       </c>
     </row>
@@ -3379,7 +3379,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>15.2117</v>
+        <v>131.2469</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.269501</t>
+          <t>2025-08-21T18:10:09.827485</t>
         </is>
       </c>
     </row>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>252.6481</v>
+        <v>416.069</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.253506</t>
+          <t>2025-08-21T18:10:09.812482</t>
         </is>
       </c>
     </row>
@@ -3469,7 +3469,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>-17.0442</v>
+        <v>-101.3909</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.269501</t>
+          <t>2025-08-21T18:10:09.827485</t>
         </is>
       </c>
     </row>
@@ -3514,7 +3514,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>336.337</v>
+        <v>224.5909</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.253506</t>
+          <t>2025-08-21T18:10:09.812482</t>
         </is>
       </c>
     </row>
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>37.0439</v>
+        <v>57.7475</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.269501</t>
+          <t>2025-08-21T18:10:09.827485</t>
         </is>
       </c>
     </row>
@@ -3604,7 +3604,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>296.5621</v>
+        <v>396.6241</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.253506</t>
+          <t>2025-08-21T18:10:09.812482</t>
         </is>
       </c>
     </row>
@@ -3649,7 +3649,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>-55.7875</v>
+        <v>75.74809999999999</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.269501</t>
+          <t>2025-08-21T18:10:09.827485</t>
         </is>
       </c>
     </row>
@@ -3694,7 +3694,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>260.2824</v>
+        <v>346.0128</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.253506</t>
+          <t>2025-08-21T18:10:09.812482</t>
         </is>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>97.0697</v>
+        <v>18.5912</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.269501</t>
+          <t>2025-08-21T18:10:09.827485</t>
         </is>
       </c>
     </row>
@@ -3784,7 +3784,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>319.0334</v>
+        <v>299.3608</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.253506</t>
+          <t>2025-08-21T18:10:09.812482</t>
         </is>
       </c>
     </row>
@@ -3829,7 +3829,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>-9.821899999999999</v>
+        <v>28.5767</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.269501</t>
+          <t>2025-08-21T18:10:09.827485</t>
         </is>
       </c>
     </row>
@@ -3874,7 +3874,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>276.8459</v>
+        <v>333.1298</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.253506</t>
+          <t>2025-08-21T18:10:09.812482</t>
         </is>
       </c>
     </row>
@@ -3919,7 +3919,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>93.4254</v>
+        <v>69.2634</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.269501</t>
+          <t>2025-08-21T18:10:09.827485</t>
         </is>
       </c>
     </row>
@@ -3964,7 +3964,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>383.9694</v>
+        <v>335.1691</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.254501</t>
+          <t>2025-08-21T18:10:09.812482</t>
         </is>
       </c>
     </row>
@@ -4009,7 +4009,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>40.8377</v>
+        <v>-129.6458</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.269501</t>
+          <t>2025-08-21T18:10:09.827485</t>
         </is>
       </c>
     </row>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>293.4858</v>
+        <v>286.4232</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.254501</t>
+          <t>2025-08-21T18:10:09.812482</t>
         </is>
       </c>
     </row>
@@ -4099,7 +4099,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>-64.67789999999999</v>
+        <v>50.9597</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.269501</t>
+          <t>2025-08-21T18:10:09.827485</t>
         </is>
       </c>
     </row>
@@ -4144,7 +4144,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>271.6591</v>
+        <v>275.5506</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.254501</t>
+          <t>2025-08-21T18:10:09.812482</t>
         </is>
       </c>
     </row>
@@ -4189,7 +4189,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>35.5564</v>
+        <v>-107.8052</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.269501</t>
+          <t>2025-08-21T18:10:09.827485</t>
         </is>
       </c>
     </row>
@@ -4234,7 +4234,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>332.1184</v>
+        <v>288.8189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.254501</t>
+          <t>2025-08-21T18:10:09.812482</t>
         </is>
       </c>
     </row>
@@ -4279,7 +4279,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>31.6312</v>
+        <v>-48.0231</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.269501</t>
+          <t>2025-08-21T18:10:09.827485</t>
         </is>
       </c>
     </row>
@@ -4324,7 +4324,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>291.9135</v>
+        <v>297.9896</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.254501</t>
+          <t>2025-08-21T18:10:09.812482</t>
         </is>
       </c>
     </row>
@@ -4369,7 +4369,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>-64.3528</v>
+        <v>-16.4884</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.270499</t>
+          <t>2025-08-21T18:10:09.827485</t>
         </is>
       </c>
     </row>
@@ -4414,7 +4414,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>254.6807</v>
+        <v>282.8724</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.254501</t>
+          <t>2025-08-21T18:10:09.812482</t>
         </is>
       </c>
     </row>
@@ -4459,7 +4459,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>-8.472200000000001</v>
+        <v>-4.5372</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.270499</t>
+          <t>2025-08-21T18:10:09.827485</t>
         </is>
       </c>
     </row>
@@ -4504,7 +4504,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>268.3737</v>
+        <v>328.5926</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.254501</t>
+          <t>2025-08-21T18:10:09.812482</t>
         </is>
       </c>
     </row>
@@ -4549,7 +4549,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>-100.4533</v>
+        <v>-30.9948</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.270499</t>
+          <t>2025-08-21T18:10:09.828483</t>
         </is>
       </c>
     </row>
@@ -4594,7 +4594,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>283.516</v>
+        <v>304.1743</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.254501</t>
+          <t>2025-08-21T18:10:09.812482</t>
         </is>
       </c>
     </row>
@@ -4639,7 +4639,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>15.6269</v>
+        <v>75.8151</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.270499</t>
+          <t>2025-08-21T18:10:09.828483</t>
         </is>
       </c>
     </row>
@@ -4684,7 +4684,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>309.1126</v>
+        <v>362.2383</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.254501</t>
+          <t>2025-08-21T18:10:09.813481</t>
         </is>
       </c>
     </row>
@@ -4729,7 +4729,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>33.2147</v>
+        <v>43.8099</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -4758,7 +4758,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.270499</t>
+          <t>2025-08-21T18:10:09.828483</t>
         </is>
       </c>
     </row>
@@ -4774,7 +4774,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>304.8738</v>
+        <v>319.3605</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.254501</t>
+          <t>2025-08-21T18:10:09.813481</t>
         </is>
       </c>
     </row>
@@ -4819,7 +4819,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>-46.675</v>
+        <v>11.8736</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.271509</t>
+          <t>2025-08-21T18:10:09.828483</t>
         </is>
       </c>
     </row>
@@ -4864,7 +4864,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>285.4435</v>
+        <v>300.6925</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.254501</t>
+          <t>2025-08-21T18:10:09.813481</t>
         </is>
       </c>
     </row>
@@ -4909,7 +4909,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>102.472</v>
+        <v>7.4063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.271509</t>
+          <t>2025-08-21T18:10:09.828483</t>
         </is>
       </c>
     </row>
@@ -4954,7 +4954,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>394.3855</v>
+        <v>305.3959</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.254501</t>
+          <t>2025-08-21T18:10:09.813481</t>
         </is>
       </c>
     </row>
@@ -4999,7 +4999,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>53.1956</v>
+        <v>10.6878</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.271509</t>
+          <t>2025-08-21T18:10:09.828483</t>
         </is>
       </c>
     </row>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>307.8763</v>
+        <v>293.5602</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.254501</t>
+          <t>2025-08-21T18:10:09.813481</t>
         </is>
       </c>
     </row>
@@ -5089,7 +5089,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>-51.9095</v>
+        <v>15.82</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.271509</t>
+          <t>2025-08-21T18:10:09.828483</t>
         </is>
       </c>
     </row>
@@ -5134,7 +5134,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>216.4641</v>
+        <v>344.4127</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.254501</t>
+          <t>2025-08-21T18:10:09.813481</t>
         </is>
       </c>
     </row>
@@ -5179,7 +5179,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>103.6265</v>
+        <v>-37.7869</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.271509</t>
+          <t>2025-08-21T18:10:09.828483</t>
         </is>
       </c>
     </row>
@@ -5224,7 +5224,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>387.1425</v>
+        <v>266.3874</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.255502</t>
+          <t>2025-08-21T18:10:09.813481</t>
         </is>
       </c>
     </row>
@@ -5269,7 +5269,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>-77.039</v>
+        <v>8.640700000000001</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.271509</t>
+          <t>2025-08-21T18:10:09.828483</t>
         </is>
       </c>
     </row>
@@ -5314,7 +5314,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>232.0736</v>
+        <v>370.879</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.255502</t>
+          <t>2025-08-21T18:10:09.813481</t>
         </is>
       </c>
     </row>
@@ -5359,7 +5359,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>-41.6736</v>
+        <v>13.4731</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.271509</t>
+          <t>2025-08-21T18:10:09.828483</t>
         </is>
       </c>
     </row>
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>263.2002</v>
+        <v>332.8336</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.255502</t>
+          <t>2025-08-21T18:10:09.813481</t>
         </is>
       </c>
     </row>
@@ -5544,7 +5544,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.448729</t>
+          <t>2025-08-21T18:10:09.932588</t>
         </is>
       </c>
     </row>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.448729</t>
+          <t>2025-08-21T18:10:09.932588</t>
         </is>
       </c>
     </row>
@@ -5634,7 +5634,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.278730</t>
+          <t>2025-08-21T18:10:09.841495</t>
         </is>
       </c>
     </row>
@@ -5679,7 +5679,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.278730</t>
+          <t>2025-08-21T18:10:09.841495</t>
         </is>
       </c>
     </row>
@@ -5790,7 +5790,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.480728</t>
+          <t>2025-08-21T18:10:09.942597</t>
         </is>
       </c>
     </row>
@@ -5835,7 +5835,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.482728</t>
+          <t>2025-08-21T18:10:09.942597</t>
         </is>
       </c>
     </row>
@@ -5880,7 +5880,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.497730</t>
+          <t>2025-08-21T18:10:09.944588</t>
         </is>
       </c>
     </row>
@@ -5925,7 +5925,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.483731</t>
+          <t>2025-08-21T18:10:09.942597</t>
         </is>
       </c>
     </row>
@@ -5970,7 +5970,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.484729</t>
+          <t>2025-08-21T18:10:09.942597</t>
         </is>
       </c>
     </row>
@@ -6015,7 +6015,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.497730</t>
+          <t>2025-08-21T18:10:09.944588</t>
         </is>
       </c>
     </row>
@@ -6060,7 +6060,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.291726</t>
+          <t>2025-08-21T18:10:09.851489</t>
         </is>
       </c>
     </row>
@@ -6105,7 +6105,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.291726</t>
+          <t>2025-08-21T18:10:09.851489</t>
         </is>
       </c>
     </row>
@@ -6150,7 +6150,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.293737</t>
+          <t>2025-08-21T18:10:09.858483</t>
         </is>
       </c>
     </row>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.291726</t>
+          <t>2025-08-21T18:10:09.853542</t>
         </is>
       </c>
     </row>
@@ -6240,7 +6240,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.291726</t>
+          <t>2025-08-21T18:10:09.853542</t>
         </is>
       </c>
     </row>
@@ -6285,7 +6285,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.293737</t>
+          <t>2025-08-21T18:10:09.858483</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.508736</t>
+          <t>2025-08-21T18:10:09.948586</t>
         </is>
       </c>
     </row>
@@ -6441,7 +6441,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.508736</t>
+          <t>2025-08-21T18:10:09.948586</t>
         </is>
       </c>
     </row>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.298728</t>
+          <t>2025-08-21T18:10:09.863488</t>
         </is>
       </c>
     </row>
@@ -6531,7 +6531,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.298728</t>
+          <t>2025-08-21T18:10:09.863488</t>
         </is>
       </c>
     </row>
@@ -6642,7 +6642,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.530728</t>
+          <t>2025-08-21T18:10:09.960591</t>
         </is>
       </c>
     </row>
@@ -6687,7 +6687,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.517742</t>
+          <t>2025-08-21T18:10:09.958593</t>
         </is>
       </c>
     </row>
@@ -6732,7 +6732,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.517742</t>
+          <t>2025-08-21T18:10:09.958593</t>
         </is>
       </c>
     </row>
@@ -6777,7 +6777,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.325729</t>
+          <t>2025-08-21T18:10:09.882487</t>
         </is>
       </c>
     </row>
@@ -6822,7 +6822,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.314730</t>
+          <t>2025-08-21T18:10:09.879488</t>
         </is>
       </c>
     </row>
@@ -6867,7 +6867,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.314730</t>
+          <t>2025-08-21T18:10:09.879488</t>
         </is>
       </c>
     </row>
@@ -6978,7 +6978,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.549731</t>
+          <t>2025-08-21T18:10:09.971588</t>
         </is>
       </c>
     </row>
@@ -7023,7 +7023,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.545729</t>
+          <t>2025-08-21T18:10:09.964589</t>
         </is>
       </c>
     </row>
@@ -7068,7 +7068,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.352735</t>
+          <t>2025-08-21T18:10:09.898485</t>
         </is>
       </c>
     </row>
@@ -7113,7 +7113,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.333731</t>
+          <t>2025-08-21T18:10:09.893486</t>
         </is>
       </c>
     </row>
@@ -7224,7 +7224,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.564731</t>
+          <t>2025-08-21T18:10:09.983589</t>
         </is>
       </c>
     </row>
@@ -7269,7 +7269,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.560727</t>
+          <t>2025-08-21T18:10:09.977587</t>
         </is>
       </c>
     </row>
@@ -7314,7 +7314,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.560727</t>
+          <t>2025-08-21T18:10:09.977587</t>
         </is>
       </c>
     </row>
@@ -7359,7 +7359,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.368731</t>
+          <t>2025-08-21T18:10:09.911486</t>
         </is>
       </c>
     </row>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.360730</t>
+          <t>2025-08-21T18:10:09.908488</t>
         </is>
       </c>
     </row>
@@ -7449,7 +7449,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:32.360730</t>
+          <t>2025-08-21T18:10:09.908488</t>
         </is>
       </c>
     </row>
@@ -7530,7 +7530,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:33.097735</t>
+          <t>2025-08-21T18:10:11.977124</t>
         </is>
       </c>
     </row>
@@ -7560,7 +7560,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:33.097735</t>
+          <t>2025-08-21T18:10:11.978123</t>
         </is>
       </c>
     </row>
@@ -7590,7 +7590,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:33.097735</t>
+          <t>2025-08-21T18:10:11.978123</t>
         </is>
       </c>
     </row>
@@ -7620,7 +7620,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:33.097735</t>
+          <t>2025-08-21T18:10:11.978123</t>
         </is>
       </c>
     </row>
@@ -7650,7 +7650,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:33.098764</t>
+          <t>2025-08-21T18:10:11.979123</t>
         </is>
       </c>
     </row>
@@ -7680,7 +7680,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:33.098764</t>
+          <t>2025-08-21T18:10:11.979123</t>
         </is>
       </c>
     </row>
@@ -7710,7 +7710,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:33.098764</t>
+          <t>2025-08-21T18:10:11.979123</t>
         </is>
       </c>
     </row>
@@ -7740,7 +7740,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:33.098764</t>
+          <t>2025-08-21T18:10:11.979123</t>
         </is>
       </c>
     </row>
@@ -7770,7 +7770,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:33.098764</t>
+          <t>2025-08-21T18:10:11.980125</t>
         </is>
       </c>
     </row>
@@ -7800,7 +7800,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:33.099763</t>
+          <t>2025-08-21T18:10:11.980125</t>
         </is>
       </c>
     </row>
@@ -7830,7 +7830,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:33.099763</t>
+          <t>2025-08-21T18:10:11.980125</t>
         </is>
       </c>
     </row>
@@ -7860,7 +7860,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:33.099763</t>
+          <t>2025-08-21T18:10:11.980125</t>
         </is>
       </c>
     </row>
@@ -7890,7 +7890,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:33.099763</t>
+          <t>2025-08-21T18:10:11.980125</t>
         </is>
       </c>
     </row>
@@ -7920,7 +7920,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-08-21T00:35:33.099763</t>
+          <t>2025-08-21T18:10:11.981124</t>
         </is>
       </c>
     </row>

--- a/MacroInputs.xlsx
+++ b/MacroInputs.xlsx
@@ -5026,7 +5026,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2025-08-23T18:50:44.266654</t>
+          <t>2025-08-23T21:24:14.457261</t>
         </is>
       </c>
     </row>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-08-23T18:50:44.266654</t>
+          <t>2025-08-23T21:24:14.457261</t>
         </is>
       </c>
     </row>
@@ -5116,7 +5116,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-08-23T18:50:40.854004</t>
+          <t>2025-08-23T21:24:08.091111</t>
         </is>
       </c>
     </row>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-08-23T18:50:40.854004</t>
+          <t>2025-08-23T21:24:08.091111</t>
         </is>
       </c>
     </row>
@@ -5272,7 +5272,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2025-08-23T18:50:44.274603</t>
+          <t>2025-08-23T21:24:14.463263</t>
         </is>
       </c>
     </row>
@@ -5317,7 +5317,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-08-23T18:50:44.274603</t>
+          <t>2025-08-23T21:24:14.463263</t>
         </is>
       </c>
     </row>
@@ -5362,7 +5362,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-08-23T18:50:44.276612</t>
+          <t>2025-08-23T21:24:14.464260</t>
         </is>
       </c>
     </row>
@@ -5407,7 +5407,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-08-23T18:50:44.274603</t>
+          <t>2025-08-23T21:24:14.463263</t>
         </is>
       </c>
     </row>
@@ -5452,7 +5452,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-08-23T18:50:44.274603</t>
+          <t>2025-08-23T21:24:14.463263</t>
         </is>
       </c>
     </row>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2025-08-23T18:50:44.276612</t>
+          <t>2025-08-23T21:24:14.464260</t>
         </is>
       </c>
     </row>
@@ -5542,7 +5542,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2025-08-23T18:50:40.866924</t>
+          <t>2025-08-23T21:24:08.098116</t>
         </is>
       </c>
     </row>
@@ -5587,7 +5587,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2025-08-23T18:50:40.866924</t>
+          <t>2025-08-23T21:24:08.098116</t>
         </is>
       </c>
     </row>
@@ -5632,7 +5632,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2025-08-23T18:50:40.868513</t>
+          <t>2025-08-23T21:24:08.099115</t>
         </is>
       </c>
     </row>
@@ -5677,7 +5677,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2025-08-23T18:50:40.866924</t>
+          <t>2025-08-23T21:24:08.098116</t>
         </is>
       </c>
     </row>
@@ -5722,7 +5722,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2025-08-23T18:50:40.866924</t>
+          <t>2025-08-23T21:24:08.098116</t>
         </is>
       </c>
     </row>
@@ -5767,7 +5767,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2025-08-23T18:50:40.868513</t>
+          <t>2025-08-23T21:24:08.099115</t>
         </is>
       </c>
     </row>
@@ -21645,7 +21645,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2025-08-23T18:50:48.551114</t>
+          <t>2025-08-23T21:24:19.366154</t>
         </is>
       </c>
     </row>
@@ -21731,7 +21731,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2025-08-23T18:50:43.791990</t>
+          <t>2025-08-23T21:24:11.685543</t>
         </is>
       </c>
     </row>
@@ -21746,7 +21746,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:F225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21762,17 +21762,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>metric</t>
+          <t>ric_or_series</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>value</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>trade_balance_usd</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -21783,42 +21783,25 @@
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>notes</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>dataset_code</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>last_updated</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>TUR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>deficit_pct_gdp</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-0.7569</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2025-07-31</t>
-        </is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>44074</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-6300000000</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -21827,43 +21810,26 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Trade balance as percentage of GDP (%)</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>monthly</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2025-08-23T18:50:48.560711</t>
+          <t>Trade balance for Turkey (USD)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>TUR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>gdp</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>198617.357</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2025-07-31</t>
-        </is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-4860000000</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -21872,43 +21838,26 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>GDP for Argentina (millions USD)</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>monthly</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2025-08-23T18:50:48.558669</t>
+          <t>Trade balance for Turkey (USD)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>TUR</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>trade_balance</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>-1503.2858</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2025-07-31</t>
-        </is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>44135</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-2400000000</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -21917,43 +21866,26 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Trade balance for Argentina (millions USD)</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>monthly</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2025-08-23T18:50:48.558669</t>
+          <t>Trade balance for Turkey (USD)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>TUR</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>deficit_pct_gdp</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>-0.7569</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2025-07-31</t>
-        </is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>44165</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-5050000000</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -21962,43 +21894,26 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Trade balance as percentage of GDP (%)</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>monthly</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2025-08-23T18:50:43.806959</t>
+          <t>Trade balance for Turkey (USD)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>TUR</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>gdp</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>198617.357</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2025-07-31</t>
-        </is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>44196</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-4550000000</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -22007,43 +21922,26 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>GDP for Turkey (millions USD)</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>monthly</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>2025-08-23T18:50:43.800972</t>
+          <t>Trade balance for Turkey (USD)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>TUR</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>trade_balance</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>-1503.2858</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2025-07-31</t>
-        </is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>44227</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-3060000000</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -22052,22 +21950,6441 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Trade balance for Turkey (millions USD)</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>monthly</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2025-08-23T18:50:43.800022</t>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>44255</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-3350000000</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-4670000000</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>44316</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-3080000000</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>44347</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-4160000000</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-2870000000</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>44408</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-4330000000</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>44439</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-4310000000</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>44469</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-2610000000</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>44500</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-1510000000</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-5450000000</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>44561</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-6830000000</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-10290000000</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-7980000000</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-8270000000</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>44681</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-6150000000</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-10660000000</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-8240000000</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>44773</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-10700000000</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-11260000000</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>44834</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-9610000000</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-7900000000</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-8780000000</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-9710000000</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-14290000000</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-12130000000</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-8380000000</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>45046</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-8740000000</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-12490000000</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-5300000000</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-12530000000</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-8710000000</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>45199</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-5100000000</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-6600000000</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-5970000000</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>45291</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-6100000000</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-6190000000</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-6770000000</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>45382</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-7300000000</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-9890000000</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-6470000000</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>45473</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-5890000000</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-7310000000</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>45535</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-5000000000</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-5160000000</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-5940000000</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>45626</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-7510000000</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-8810000000</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-7520000000</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-7790000000</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-7200000000</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-12110000000</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>45808</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-6650000000</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>TRTRD=ECI</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-8170000000</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Trade balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2020-08-31</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>-6300000000</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2020-08-31</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>315000000000</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>-11160000000</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>558000000000</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2020-10-31</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>-13560000000</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2020-10-31</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>678000000000</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2020-11-30</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>-18610000000</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2020-11-30</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>930500000000</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2020-12-31</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>-23160000000</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2020-12-31</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>1158000000000</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2021-01-31</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>-26220000000</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2021-01-31</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>1311000000000</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2021-02-28</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>-29570000000</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2021-02-28</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>1478500000000</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2021-03-31</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>-34240000000</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2021-03-31</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>1712000000000</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2021-04-30</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>-37320000000</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2021-04-30</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>1866000000000</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2021-05-31</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>-41480000000</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2021-05-31</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>2074000000000</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>-44350000000</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>2217500000000</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2021-07-31</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>-48680000000</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2021-07-31</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>2434000000000</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2021-08-31</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>-46690000000</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2021-08-31</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>1990000000</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2021-08-31</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>2334500000000</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2021-09-30</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>-44440000000</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2021-09-30</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>2250000000</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2021-09-30</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>2222000000000</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2021-10-31</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>-43550000000</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2021-10-31</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>890000000</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2021-10-31</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>2177500000000</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2021-11-30</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>-43950000000</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2021-11-30</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>-400000000</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2021-11-30</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>2197500000000</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2021-12-31</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>-46230000000</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2021-12-31</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>-2280000000</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2021-12-31</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>2311500000000</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2022-01-31</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>-53460000000</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2022-01-31</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>-7230000000</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2022-01-31</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>2673000000000</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2022-02-28</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>-58090000000</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2022-02-28</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>-4630000000</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2022-02-28</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>2904500000000</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2022-03-31</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>-61690000000</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2022-03-31</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>-3600000000</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2022-03-31</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>3084500000000</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2022-04-30</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>-64760000000</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2022-04-30</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>-3070000000</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2022-04-30</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>3238000000000</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2022-05-31</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>-71260000000</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2022-05-31</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>-6500000000</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2022-05-31</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>3563000000000</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>-76630000000</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>-5370000000</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>3831500000000</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2022-07-31</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>-83000000000</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2022-07-31</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>-6370000000</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2022-07-31</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>4150000000000</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2022-08-31</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>-89950000000</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2022-08-31</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>-6950000000</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2022-08-31</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>4497500000000</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>-96950000000</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>-7000000000</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>4847500000000</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2022-10-31</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>-103340000000</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2022-10-31</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>-6390000000</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2022-10-31</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>5167000000000</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2022-11-30</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>-106670000000</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2022-11-30</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>-3330000000</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2022-11-30</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>5333500000000</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2022-12-31</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>-109550000000</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2022-12-31</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>-2880000000</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>2022-12-31</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>5477500000000</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>2023-01-31</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>-113550000000</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>2023-01-31</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>-4000000000</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2023-01-31</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>5677500000000</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>2023-02-28</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>-117700000000</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>2023-02-28</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>-4150000000</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>2023-02-28</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>5885000000000</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>-117810000000</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>-110000000</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>5890500000000</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>2023-04-30</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>-120400000000</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>2023-04-30</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>-2590000000</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>2023-04-30</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>6020000000000</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>2023-05-31</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>-122230000000</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>2023-05-31</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>-1830000000</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>2023-05-31</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>6111500000000</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>-119290000000</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>2940000000</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>5964500000000</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>-121120000000</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>-1830000000</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>6056000000000</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>-118570000000</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>2550000000</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>5928500000000</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>-114060000000</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>4510000000</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>5703000000000</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>2023-10-31</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>-112760000000</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>2023-10-31</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>1300000000</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>2023-10-31</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>5638000000000</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>2023-11-30</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>-109950000000</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>2023-11-30</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>2810000000</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>2023-11-30</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>5497500000000</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>2023-12-31</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>-106340000000</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>2023-12-31</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>3610000000</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>2023-12-31</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>5317000000000</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>2024-01-31</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>-98240000000</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>2024-01-31</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>8100000000</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>2024-01-31</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>4912000000000</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>-92880000000</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>5360000000</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>4644000000000</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>2024-03-31</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>-91800000000</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>2024-03-31</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>1080000000</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>2024-03-31</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>4590000000000</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>2024-04-30</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>-92950000000</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>2024-04-30</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>-1150000000</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>2024-04-30</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>4647500000000</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>2024-05-31</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>-86930000000</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>2024-05-31</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>6020000000</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>2024-05-31</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>4346500000000</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>-87520000000</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>-590000000</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>4376000000000</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>2024-07-31</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>-82300000000</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>2024-07-31</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>5220000000</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>2024-07-31</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>4115000000000</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>2024-08-31</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>-78590000000</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>2024-08-31</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>3710000000</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>2024-08-31</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>3929500000000</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>-78650000000</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>-60000000</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>3932500000000</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>-77990000000</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>660000000</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>3899500000000</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>2024-11-30</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>-79530000000</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>2024-11-30</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>-1540000000</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>2024-11-30</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>3976500000000</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>-82240000000</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>-2710000000</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>4112000000000</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>-83570000000</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>-1330000000</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>4178500000000</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>-84590000000</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>-1020000000</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>4229500000000</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>-84490000000</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>4224500000000</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>-86710000000</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>-2220000000</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>4335500000000</v>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2025-05-31</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>-86890000000</v>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2025-05-31</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>-180000000</v>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2025-05-31</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>4344500000000</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>tb_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>-89170000000</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>change_1y_usd</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>-2280000000</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Year-over-year change in trade balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>deficit_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>4458500000000</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Deficit as % of GDP (GDP: 2 USD)</t>
         </is>
       </c>
     </row>

--- a/MacroInputs.xlsx
+++ b/MacroInputs.xlsx
@@ -5026,7 +5026,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2025-08-23T21:24:14.457261</t>
+          <t>2025-08-24T00:57:57.292575</t>
         </is>
       </c>
     </row>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-08-23T21:24:14.457261</t>
+          <t>2025-08-24T00:57:57.292575</t>
         </is>
       </c>
     </row>
@@ -5116,7 +5116,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-08-23T21:24:08.091111</t>
+          <t>2025-08-24T00:57:49.021833</t>
         </is>
       </c>
     </row>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-08-23T21:24:08.091111</t>
+          <t>2025-08-24T00:57:49.021833</t>
         </is>
       </c>
     </row>
@@ -5176,7 +5176,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:F225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5192,17 +5192,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>metric</t>
+          <t>series_id</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>value</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>portfolio_net_usd</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -5213,42 +5213,25 @@
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>notes</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>dataset_code</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>last_updated</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>TUR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>capital_inflows</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5993.4283</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2025-09-30</t>
-        </is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>44074</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2085000000</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -5257,43 +5240,26 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Capital inflows for Argentina (millions USD)</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2025-08-23T21:24:14.463263</t>
+          <t>Portfolio investment balance for Turkey (USD)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>TUR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>gdp</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>206476.8854</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2025-09-30</t>
-        </is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-179000000</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -5302,43 +5268,26 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>GDP for Argentina (millions USD)</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2025-08-23T21:24:14.463263</t>
+          <t>Portfolio investment balance for Turkey (USD)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>TUR</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>inflow_to_gdp_ratio</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2025-09-30</t>
-        </is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>44135</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-2168000000</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -5347,43 +5296,26 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Capital inflows as percentage of GDP</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2025-08-23T21:24:14.464260</t>
+          <t>Portfolio investment balance for Turkey (USD)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>TUR</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>capital_inflows</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4723.4714</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2025-12-31</t>
-        </is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>44165</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-1995000000</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -5392,43 +5324,26 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Capital inflows for Argentina (millions USD)</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2025-08-23T21:24:14.463263</t>
+          <t>Portfolio investment balance for Turkey (USD)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>TUR</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>gdp</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>215230.2986</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2025-12-31</t>
-        </is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>44196</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-2846000000</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -5437,43 +5352,26 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>GDP for Argentina (millions USD)</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>2025-08-23T21:24:14.463263</t>
+          <t>Portfolio investment balance for Turkey (USD)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>TUR</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>inflow_to_gdp_ratio</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0219</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2025-12-31</t>
-        </is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>44227</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-5215000000</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -5482,43 +5380,26 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Capital inflows as percentage of GDP</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2025-08-23T21:24:14.464260</t>
+          <t>Portfolio investment balance for Turkey (USD)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>TUR</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>capital_inflows</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>5993.4283</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2025-09-30</t>
-        </is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>44255</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-434000000</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -5527,43 +5408,26 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Capital inflows for Turkey (millions USD)</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2025-08-23T21:24:08.098116</t>
+          <t>Portfolio investment balance for Turkey (USD)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>TUR</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>gdp</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>206476.8854</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2025-09-30</t>
-        </is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5833000000</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -5572,43 +5436,26 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>GDP for Turkey (millions USD)</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2025-08-23T21:24:08.098116</t>
+          <t>Portfolio investment balance for Turkey (USD)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>TUR</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>inflow_to_gdp_ratio</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2025-09-30</t>
-        </is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>44316</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2250000000</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -5617,43 +5464,26 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Capital inflows as percentage of GDP</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>2025-08-23T21:24:08.099115</t>
+          <t>Portfolio investment balance for Turkey (USD)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>TUR</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>capital_inflows</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>4723.4714</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2025-12-31</t>
-        </is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>44347</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-225000000</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -5662,43 +5492,26 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Capital inflows for Turkey (millions USD)</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>2025-08-23T21:24:08.098116</t>
+          <t>Portfolio investment balance for Turkey (USD)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>TUR</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>gdp</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>215230.2986</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2025-12-31</t>
-        </is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-2306000000</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -5707,43 +5520,26 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>GDP for Turkey (millions USD)</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>2025-08-23T21:24:08.098116</t>
+          <t>Portfolio investment balance for Turkey (USD)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>TUR</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>inflow_to_gdp_ratio</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0219</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2025-12-31</t>
-        </is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>44408</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-108000000</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -5752,22 +5548,6273 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Capital inflows as percentage of GDP</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>2025-08-23T21:24:08.099115</t>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>44439</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-340000000</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>44469</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-360000000</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>44500</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2930000000</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2247000000</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>44561</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3325000000</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1837000000</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1695000000</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3686000000</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>44681</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1661000000</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4938000000</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2055000000</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>44773</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1354000000</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-395000000</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>44834</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2819000000</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="D28" t="n">
+        <v>625000000</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-848000000</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-956000000</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-343000000</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1365000000</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1601000000</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>45046</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1026000000</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1979000000</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-2200000000</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-1191000000</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-761000000</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>45199</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-384000000</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1353000000</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-4579000000</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>45291</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-3518000000</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-226000000</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-1539000000</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>45382</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1550000000</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-1559000000</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-6944000000</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>45473</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-1349000000</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-2483000000</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>45535</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1588000000</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1289000000</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-1293000000</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>45626</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-2192000000</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1181000000</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-2431000000</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-2566000000</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="D57" t="n">
+        <v>3554000000</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="D58" t="n">
+        <v>11041000000</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>45808</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-2662000000</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>aTRPIBALT</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-1049000000</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Portfolio investment balance for Turkey (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2020-08-31</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>2085000000</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2020-08-31</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>104250000000</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>1906000000</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>95300000000</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2020-10-31</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>-262000000</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2020-10-31</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>-13100000000</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2020-11-30</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>-2257000000</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2020-11-30</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>-112850000000</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2020-12-31</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>-5103000000</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2020-12-31</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>-255150000000</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2021-01-31</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>-10318000000</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2021-01-31</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>-515900000000</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2021-02-28</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>-10752000000</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2021-02-28</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>-537600000000</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2021-03-31</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>-4919000000</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2021-03-31</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>-245950000000</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2021-04-30</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>-2669000000</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2021-04-30</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>-133450000000</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2021-05-31</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>-2894000000</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2021-05-31</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>-144700000000</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>-5200000000</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>-260000000000</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2021-07-31</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>-5308000000</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2021-07-31</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>-265400000000</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2021-08-31</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>-7733000000</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2021-08-31</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>-2425000000</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2021-08-31</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>-386650000000</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2021-09-30</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>-7914000000</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2021-09-30</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>-181000000</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2021-09-30</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>-395700000000</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2021-10-31</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>-2816000000</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2021-10-31</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>5098000000</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2021-10-31</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>-140800000000</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2021-11-30</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>1426000000</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2021-11-30</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>4242000000</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2021-11-30</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>71300000000</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2021-12-31</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>7597000000</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2021-12-31</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>6171000000</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2021-12-31</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>379850000000</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2022-01-31</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>14649000000</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2022-01-31</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>7052000000</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2022-01-31</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>732450000000</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2022-02-28</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>16778000000</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2022-02-28</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>2129000000</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2022-02-28</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>838900000000</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2022-03-31</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>14631000000</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2022-03-31</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>-2147000000</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2022-03-31</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>731550000000</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2022-04-30</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>14042000000</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2022-04-30</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>-589000000</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2022-04-30</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>702100000000</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2022-05-31</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>19205000000</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2022-05-31</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>5163000000</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2022-05-31</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>960250000000</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>23566000000</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>4361000000</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>1178300000000</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2022-07-31</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>25028000000</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2022-07-31</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>1462000000</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2022-07-31</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>1251400000000</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2022-08-31</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>24973000000</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2022-08-31</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>-55000000</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2022-08-31</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>1248650000000</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>28152000000</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>3179000000</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>1407600000000</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2022-10-31</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>25847000000</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2022-10-31</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>-2305000000</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2022-10-31</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>1292350000000</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2022-11-30</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>22752000000</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2022-11-30</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>-3095000000</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2022-11-30</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>1137600000000</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2022-12-31</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>18471000000</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2022-12-31</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>-4281000000</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>2022-12-31</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>923550000000</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>2023-01-31</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>16291000000</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>2023-01-31</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>-2180000000</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2023-01-31</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>814550000000</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>2023-02-28</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>15961000000</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>2023-02-28</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>-330000000</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>2023-02-28</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>798050000000</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>13876000000</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>-2085000000</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>693800000000</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>2023-04-30</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>13241000000</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>2023-04-30</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>-635000000</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>2023-04-30</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>662050000000</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>2023-05-31</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>10282000000</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>2023-05-31</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>-2959000000</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>2023-05-31</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>514100000000</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>6027000000</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>-4255000000</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>301350000000</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>3482000000</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>-2545000000</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>174100000000</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>3116000000</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>-366000000</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>155800000000</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>-87000000</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>-3203000000</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>-4350000000</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>2023-10-31</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>641000000</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>2023-10-31</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>728000000</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>2023-10-31</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>32050000000</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>2023-11-30</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>-3090000000</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>2023-11-30</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>-3731000000</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>2023-11-30</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>-154500000000</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>2023-12-31</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>-5652000000</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>2023-12-31</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>-2562000000</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>2023-12-31</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>-282600000000</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>2024-01-31</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>-5535000000</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>2024-01-31</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>117000000</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>2024-01-31</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>-276750000000</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>-8439000000</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>-2904000000</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>-421950000000</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>2024-03-31</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>-8490000000</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>2024-03-31</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>-51000000</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>2024-03-31</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>-424500000000</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>2024-04-30</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>-11075000000</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>2024-04-30</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>-2585000000</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>2024-04-30</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>-553750000000</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>2024-05-31</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>-19998000000</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>2024-05-31</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>-8923000000</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>2024-05-31</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>-999900000000</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>-19147000000</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>851000000</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>-957350000000</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>2024-07-31</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>-20439000000</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>2024-07-31</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>-1292000000</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>2024-07-31</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>-1021950000000</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>2024-08-31</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>-18090000000</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>2024-08-31</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>2349000000</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>2024-08-31</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>-904500000000</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>-16417000000</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>1673000000</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>-820850000000</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>-19063000000</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>-2646000000</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>-953150000000</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>2024-11-30</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>-16676000000</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>2024-11-30</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>2387000000</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>2024-11-30</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>-833800000000</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>-11977000000</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>4699000000</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>-598850000000</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>-14182000000</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>-2205000000</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>-709100000000</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>-15209000000</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>-1027000000</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>-760450000000</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>-13205000000</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>2004000000</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>-660250000000</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>-605000000</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>12600000000</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>-30250000000</v>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2025-05-31</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>3677000000</v>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2025-05-31</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>4282000000</v>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2025-05-31</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>183850000000</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>cf_12m_sum_usd</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>3977000000</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>12-month rolling sum of portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>cf_yoy_usd</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>300000000</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Year-over-year change in portfolio investment balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>cf_pct_gdp</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>198850000000</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Portfolio flows as % of GDP (GDP: 2 USD)</t>
         </is>
       </c>
     </row>
@@ -21645,7 +27692,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2025-08-23T21:24:19.366154</t>
+          <t>2025-08-24T00:58:02.756554</t>
         </is>
       </c>
     </row>
@@ -21731,7 +27778,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2025-08-23T21:24:11.685543</t>
+          <t>2025-08-24T00:57:54.364180</t>
         </is>
       </c>
     </row>

--- a/MacroInputs.xlsx
+++ b/MacroInputs.xlsx
@@ -8,12 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="CDS" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="RolloverRatings" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="CapitalFlows" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="MoneySupplyCB" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="FXReserves" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Inflation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="TradeBalance" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="CapitalFlows" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="MoneySupplyCB" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="FXReserves" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Inflation" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="TradeBalance" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -492,10 +491,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45803</v>
+        <v>45804</v>
       </c>
       <c r="B2" t="n">
-        <v>830.09</v>
+        <v>830.73</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -523,10 +522,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45804</v>
+        <v>45805</v>
       </c>
       <c r="B3" t="n">
-        <v>830.73</v>
+        <v>815.51</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -554,10 +553,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45805</v>
+        <v>45806</v>
       </c>
       <c r="B4" t="n">
-        <v>815.51</v>
+        <v>815.87</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -585,10 +584,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45806</v>
+        <v>45807</v>
       </c>
       <c r="B5" t="n">
-        <v>815.87</v>
+        <v>807.85</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -616,10 +615,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45807</v>
+        <v>45810</v>
       </c>
       <c r="B6" t="n">
-        <v>807.85</v>
+        <v>807.96</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -647,10 +646,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45810</v>
+        <v>45811</v>
       </c>
       <c r="B7" t="n">
-        <v>807.96</v>
+        <v>808.39</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -678,10 +677,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45811</v>
+        <v>45812</v>
       </c>
       <c r="B8" t="n">
-        <v>808.39</v>
+        <v>808.78</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -693,7 +692,9 @@
           <t>Argentina</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>-21.31</v>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
@@ -709,10 +710,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45812</v>
+        <v>45813</v>
       </c>
       <c r="B9" t="n">
-        <v>808.78</v>
+        <v>815.2</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -725,7 +726,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-21.31</v>
+        <v>-15.53</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -742,10 +743,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45813</v>
+        <v>45814</v>
       </c>
       <c r="B10" t="n">
-        <v>815.2</v>
+        <v>846.1900000000001</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -758,7 +759,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-15.53</v>
+        <v>30.68</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -775,10 +776,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45814</v>
+        <v>45817</v>
       </c>
       <c r="B11" t="n">
-        <v>846.1900000000001</v>
+        <v>862.64</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -791,7 +792,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>30.68</v>
+        <v>46.77</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -808,10 +809,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45817</v>
+        <v>45818</v>
       </c>
       <c r="B12" t="n">
-        <v>862.64</v>
+        <v>863.0599999999999</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -824,7 +825,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>46.77</v>
+        <v>55.21</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -841,10 +842,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45818</v>
+        <v>45819</v>
       </c>
       <c r="B13" t="n">
-        <v>863.0599999999999</v>
+        <v>832.36</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -857,7 +858,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>55.21</v>
+        <v>24.4</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -874,10 +875,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45819</v>
+        <v>45820</v>
       </c>
       <c r="B14" t="n">
-        <v>832.36</v>
+        <v>801.61</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -890,7 +891,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>24.4</v>
+        <v>-6.78</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -907,10 +908,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="B15" t="n">
-        <v>801.61</v>
+        <v>801.47</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -923,7 +924,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-6.78</v>
+        <v>-7.31</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -940,10 +941,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45821</v>
+        <v>45824</v>
       </c>
       <c r="B16" t="n">
-        <v>801.47</v>
+        <v>801.89</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -956,7 +957,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-7.31</v>
+        <v>-13.31</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -973,10 +974,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45824</v>
+        <v>45825</v>
       </c>
       <c r="B17" t="n">
-        <v>801.89</v>
+        <v>802.4400000000001</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -989,7 +990,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-13.31</v>
+        <v>-43.75</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1006,10 +1007,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="B18" t="n">
-        <v>802.4400000000001</v>
+        <v>802.29</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1022,7 +1023,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-43.75</v>
+        <v>-60.35</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -1039,10 +1040,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45826</v>
+        <v>45827</v>
       </c>
       <c r="B19" t="n">
-        <v>802.29</v>
+        <v>832.77</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1055,7 +1056,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>-60.35</v>
+        <v>-30.29</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1072,10 +1073,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45827</v>
+        <v>45828</v>
       </c>
       <c r="B20" t="n">
-        <v>832.77</v>
+        <v>832.84</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1088,7 +1089,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-30.29</v>
+        <v>0.48</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1105,10 +1106,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B21" t="n">
-        <v>832.84</v>
+        <v>832.87</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1121,7 +1122,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.48</v>
+        <v>31.26</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -1138,10 +1139,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="B22" t="n">
-        <v>832.87</v>
+        <v>832.75</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1154,7 +1155,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>31.26</v>
+        <v>31.28</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -1171,10 +1172,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="B23" t="n">
-        <v>832.75</v>
+        <v>802.35</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1187,7 +1188,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>31.28</v>
+        <v>0.46</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -1204,10 +1205,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45833</v>
+        <v>45834</v>
       </c>
       <c r="B24" t="n">
-        <v>802.35</v>
+        <v>802.37</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1220,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.46</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -1237,10 +1238,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="B25" t="n">
-        <v>802.37</v>
+        <v>802.02</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1253,7 +1254,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.27</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -1270,10 +1271,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45835</v>
+        <v>45838</v>
       </c>
       <c r="B26" t="n">
-        <v>802.02</v>
+        <v>802.35</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1286,7 +1287,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-0.27</v>
+        <v>-30.42</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1303,10 +1304,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45838</v>
+        <v>45839</v>
       </c>
       <c r="B27" t="n">
-        <v>802.35</v>
+        <v>787.64</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1319,7 +1320,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>-30.42</v>
+        <v>-45.2</v>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
@@ -1336,10 +1337,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45839</v>
+        <v>45840</v>
       </c>
       <c r="B28" t="n">
-        <v>787.64</v>
+        <v>802.97</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1352,7 +1353,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-45.2</v>
+        <v>-29.9</v>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
@@ -1369,10 +1370,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45840</v>
+        <v>45841</v>
       </c>
       <c r="B29" t="n">
-        <v>802.97</v>
+        <v>803.17</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1385,7 +1386,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-29.9</v>
+        <v>-29.58</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1402,10 +1403,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45841</v>
+        <v>45842</v>
       </c>
       <c r="B30" t="n">
-        <v>803.17</v>
+        <v>803.8200000000001</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1418,9 +1419,11 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>-29.58</v>
-      </c>
-      <c r="F30" t="inlineStr"/>
+        <v>1.47</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.6653</v>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
@@ -1435,10 +1438,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45842</v>
+        <v>45845</v>
       </c>
       <c r="B31" t="n">
-        <v>803.8200000000001</v>
+        <v>804</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1451,10 +1454,10 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1.47</v>
+        <v>1.63</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.6653</v>
+        <v>-0.6409</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
@@ -1470,10 +1473,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B32" t="n">
-        <v>804</v>
+        <v>804.58</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1486,10 +1489,10 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1.63</v>
+        <v>2.56</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.6409</v>
+        <v>-0.5971</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
@@ -1505,10 +1508,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B33" t="n">
-        <v>804.58</v>
+        <v>804.84</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1521,10 +1524,10 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2.56</v>
+        <v>2.49</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.5971</v>
+        <v>-0.5714</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
@@ -1540,10 +1543,10 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B34" t="n">
-        <v>804.84</v>
+        <v>804.5700000000001</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1556,10 +1559,10 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2.49</v>
+        <v>16.93</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.5714</v>
+        <v>-0.5747</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
@@ -1575,10 +1578,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B35" t="n">
-        <v>804.5700000000001</v>
+        <v>804.79</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1591,10 +1594,10 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>16.93</v>
+        <v>1.82</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.5747</v>
+        <v>-0.5522</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
@@ -1610,10 +1613,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B36" t="n">
-        <v>804.79</v>
+        <v>820.42</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1626,10 +1629,10 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1.82</v>
+        <v>17.25</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.5522</v>
+        <v>0.3126</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
@@ -1645,10 +1648,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B37" t="n">
-        <v>820.42</v>
+        <v>837.71</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1661,10 +1664,10 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>17.25</v>
+        <v>33.89</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3126</v>
+        <v>1.2419</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
@@ -1680,10 +1683,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B38" t="n">
-        <v>837.71</v>
+        <v>838.33</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1696,10 +1699,10 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>33.89</v>
+        <v>34.33</v>
       </c>
       <c r="F38" t="n">
-        <v>1.2419</v>
+        <v>1.2332</v>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
@@ -1715,10 +1718,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B39" t="n">
-        <v>838.33</v>
+        <v>837.97</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1731,10 +1734,10 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>34.33</v>
+        <v>33.39</v>
       </c>
       <c r="F39" t="n">
-        <v>1.2332</v>
+        <v>1.1755</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
@@ -1750,10 +1753,10 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B40" t="n">
-        <v>837.97</v>
+        <v>854.64</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1766,10 +1769,10 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>33.39</v>
+        <v>49.8</v>
       </c>
       <c r="F40" t="n">
-        <v>1.1755</v>
+        <v>1.9616</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
@@ -1785,10 +1788,10 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B41" t="n">
-        <v>854.64</v>
+        <v>854.51</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1801,10 +1804,10 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>49.8</v>
+        <v>49.94</v>
       </c>
       <c r="F41" t="n">
-        <v>1.9616</v>
+        <v>1.8451</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
@@ -1820,10 +1823,10 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B42" t="n">
-        <v>854.51</v>
+        <v>854.88</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1836,10 +1839,10 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>49.94</v>
+        <v>50.09</v>
       </c>
       <c r="F42" t="n">
-        <v>1.8451</v>
+        <v>1.7688</v>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
@@ -1855,10 +1858,10 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B43" t="n">
-        <v>854.88</v>
+        <v>854.79</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1871,10 +1874,10 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>50.09</v>
+        <v>34.37</v>
       </c>
       <c r="F43" t="n">
-        <v>1.7688</v>
+        <v>1.6829</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
@@ -1890,10 +1893,10 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B44" t="n">
-        <v>854.79</v>
+        <v>855</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1906,10 +1909,10 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>34.37</v>
+        <v>17.29</v>
       </c>
       <c r="F44" t="n">
-        <v>1.6829</v>
+        <v>1.621</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
@@ -1925,10 +1928,10 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B45" t="n">
-        <v>855</v>
+        <v>855.63</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1941,10 +1944,10 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>17.29</v>
+        <v>17.3</v>
       </c>
       <c r="F45" t="n">
-        <v>1.621</v>
+        <v>1.5847</v>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
@@ -1960,10 +1963,10 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B46" t="n">
-        <v>855.63</v>
+        <v>855.89</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1976,10 +1979,10 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>17.3</v>
+        <v>17.92</v>
       </c>
       <c r="F46" t="n">
-        <v>1.5847</v>
+        <v>1.5368</v>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
@@ -1995,10 +1998,10 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B47" t="n">
-        <v>855.89</v>
+        <v>856.45</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2011,10 +2014,10 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>17.92</v>
+        <v>1.81</v>
       </c>
       <c r="F47" t="n">
-        <v>1.5368</v>
+        <v>1.5067</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
@@ -2030,10 +2033,10 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45867</v>
+        <v>45868</v>
       </c>
       <c r="B48" t="n">
-        <v>856.45</v>
+        <v>832.91</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2046,10 +2049,10 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1.81</v>
+        <v>-21.6</v>
       </c>
       <c r="F48" t="n">
-        <v>1.5067</v>
+        <v>0.434</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
@@ -2065,10 +2068,10 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45868</v>
+        <v>45869</v>
       </c>
       <c r="B49" t="n">
-        <v>832.91</v>
+        <v>833.1900000000001</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -2081,10 +2084,10 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-21.6</v>
+        <v>-21.69</v>
       </c>
       <c r="F49" t="n">
-        <v>0.434</v>
+        <v>0.4414</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
@@ -2100,10 +2103,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45869</v>
+        <v>45870</v>
       </c>
       <c r="B50" t="n">
-        <v>833.1900000000001</v>
+        <v>824.73</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -2116,10 +2119,10 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-21.69</v>
+        <v>-30.06</v>
       </c>
       <c r="F50" t="n">
-        <v>0.4414</v>
+        <v>0.0507</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
@@ -2135,10 +2138,10 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45870</v>
+        <v>45873</v>
       </c>
       <c r="B51" t="n">
-        <v>824.73</v>
+        <v>846.9299999999999</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -2151,10 +2154,10 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-30.06</v>
+        <v>-8.07</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0507</v>
+        <v>1.0623</v>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
@@ -2170,10 +2173,10 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45873</v>
+        <v>45874</v>
       </c>
       <c r="B52" t="n">
-        <v>846.9299999999999</v>
+        <v>847.35</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2186,10 +2189,10 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>-8.07</v>
+        <v>-8.279999999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>1.0623</v>
+        <v>1.0595</v>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
@@ -2205,10 +2208,10 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45874</v>
+        <v>45875</v>
       </c>
       <c r="B53" t="n">
-        <v>847.35</v>
+        <v>847.5700000000001</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2221,10 +2224,10 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>-8.279999999999999</v>
+        <v>-8.32</v>
       </c>
       <c r="F53" t="n">
-        <v>1.0595</v>
+        <v>1.0483</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
@@ -2240,10 +2243,10 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45875</v>
+        <v>45876</v>
       </c>
       <c r="B54" t="n">
-        <v>847.5700000000001</v>
+        <v>825.67</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2256,10 +2259,10 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>-8.32</v>
+        <v>-30.78</v>
       </c>
       <c r="F54" t="n">
-        <v>1.0483</v>
+        <v>0.0317</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
@@ -2275,10 +2278,10 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45876</v>
+        <v>45877</v>
       </c>
       <c r="B55" t="n">
-        <v>825.67</v>
+        <v>825.8099999999999</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2291,10 +2294,10 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>-30.78</v>
+        <v>-7.1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0317</v>
+        <v>0.038</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
@@ -2310,10 +2313,10 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45877</v>
+        <v>45880</v>
       </c>
       <c r="B56" t="n">
-        <v>825.8099999999999</v>
+        <v>810.74</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -2326,10 +2329,10 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>-7.1</v>
+        <v>-22.45</v>
       </c>
       <c r="F56" t="n">
-        <v>0.038</v>
+        <v>-0.666</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
@@ -2345,10 +2348,10 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45880</v>
+        <v>45881</v>
       </c>
       <c r="B57" t="n">
-        <v>810.74</v>
+        <v>811.25</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -2361,10 +2364,10 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>-22.45</v>
+        <v>-13.48</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.666</v>
+        <v>-0.6339</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
@@ -2380,10 +2383,10 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45881</v>
+        <v>45882</v>
       </c>
       <c r="B58" t="n">
-        <v>811.25</v>
+        <v>803.45</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -2396,10 +2399,10 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>-13.48</v>
+        <v>-43.48</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.6339</v>
+        <v>-0.9893</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
@@ -2415,10 +2418,10 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45882</v>
+        <v>45883</v>
       </c>
       <c r="B59" t="n">
-        <v>803.45</v>
+        <v>803.16</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -2431,10 +2434,10 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>-43.48</v>
+        <v>-44.19</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9893</v>
+        <v>-0.9862</v>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
@@ -2450,10 +2453,10 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45883</v>
+        <v>45884</v>
       </c>
       <c r="B60" t="n">
-        <v>803.16</v>
+        <v>803.64</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2466,10 +2469,10 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>-44.19</v>
+        <v>-43.93</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9862</v>
+        <v>-0.9479</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
@@ -2485,10 +2488,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45884</v>
+        <v>45887</v>
       </c>
       <c r="B61" t="n">
-        <v>803.64</v>
+        <v>803.99</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -2501,10 +2504,10 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>-43.93</v>
+        <v>-21.68</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.9479</v>
+        <v>-0.9171</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
@@ -2520,10 +2523,10 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="B62" t="n">
-        <v>803.99</v>
+        <v>804.55</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -2536,10 +2539,10 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-21.68</v>
+        <v>-21.26</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.9171</v>
+        <v>-0.8774999999999999</v>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
@@ -2555,10 +2558,10 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="B63" t="n">
-        <v>804.55</v>
+        <v>804.5599999999999</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -2571,10 +2574,10 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>-21.26</v>
+        <v>-6.18</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8774999999999999</v>
+        <v>-0.8648</v>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
@@ -2590,7 +2593,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="B64" t="n">
         <v>804.5599999999999</v>
@@ -2606,10 +2609,10 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>-6.18</v>
+        <v>-6.69</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.8648</v>
+        <v>-0.8531</v>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
@@ -2625,10 +2628,10 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="B65" t="n">
-        <v>804.5599999999999</v>
+        <v>805.01</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -2641,10 +2644,10 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-6.69</v>
+        <v>1.56</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.8531</v>
+        <v>-0.8206</v>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
@@ -2654,33 +2657,29 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>CDS 5Y spread for Argentina</t>
+          <t>CDS 5Y spread for Argentina - insufficient_history_6m</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45891</v>
+        <v>45804</v>
       </c>
       <c r="B66" t="n">
-        <v>805.01</v>
+        <v>301.88</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>ARGV5YUSAC=R</t>
+          <t>TRGV5YUSAC=R</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="F66" t="n">
-        <v>-0.8206</v>
-      </c>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
@@ -2689,16 +2688,16 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>CDS 5Y spread for Argentina - insufficient_history_6m</t>
+          <t>CDS 5Y spread for Turkey</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
       <c r="B67" t="n">
-        <v>301.98</v>
+        <v>303.42</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -2726,10 +2725,10 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45804</v>
+        <v>45806</v>
       </c>
       <c r="B68" t="n">
-        <v>301.88</v>
+        <v>308.9</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2757,10 +2756,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45805</v>
+        <v>45807</v>
       </c>
       <c r="B69" t="n">
-        <v>303.42</v>
+        <v>317.42</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2788,10 +2787,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45806</v>
+        <v>45810</v>
       </c>
       <c r="B70" t="n">
-        <v>308.9</v>
+        <v>319.32</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2819,10 +2818,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45807</v>
+        <v>45811</v>
       </c>
       <c r="B71" t="n">
-        <v>317.42</v>
+        <v>311.47</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2834,7 +2833,9 @@
           <t>Turkey</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>18.41</v>
+      </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
@@ -2850,10 +2851,10 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45810</v>
+        <v>45812</v>
       </c>
       <c r="B72" t="n">
-        <v>319.32</v>
+        <v>303.43</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2865,7 +2866,9 @@
           <t>Turkey</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>1.45</v>
+      </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
@@ -2881,10 +2884,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45811</v>
+        <v>45813</v>
       </c>
       <c r="B73" t="n">
-        <v>311.47</v>
+        <v>296.09</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2897,7 +2900,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>18.41</v>
+        <v>-5.79</v>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
@@ -2914,10 +2917,10 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45812</v>
+        <v>45814</v>
       </c>
       <c r="B74" t="n">
-        <v>303.43</v>
+        <v>299.93</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2930,7 +2933,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>1.45</v>
+        <v>-3.49</v>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
@@ -2947,10 +2950,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45813</v>
+        <v>45817</v>
       </c>
       <c r="B75" t="n">
-        <v>296.09</v>
+        <v>295.94</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2963,7 +2966,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>-5.79</v>
+        <v>-12.96</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -2980,10 +2983,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45814</v>
+        <v>45818</v>
       </c>
       <c r="B76" t="n">
-        <v>299.93</v>
+        <v>294.15</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2996,7 +2999,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>-3.49</v>
+        <v>-23.27</v>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
@@ -3013,10 +3016,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B77" t="n">
-        <v>295.94</v>
+        <v>291.28</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -3029,7 +3032,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-12.96</v>
+        <v>-28.04</v>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
@@ -3046,10 +3049,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B78" t="n">
-        <v>294.15</v>
+        <v>286.81</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -3062,7 +3065,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>-23.27</v>
+        <v>-24.66</v>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
@@ -3079,10 +3082,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B79" t="n">
-        <v>291.28</v>
+        <v>291.19</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -3095,7 +3098,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>-28.04</v>
+        <v>-12.24</v>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
@@ -3112,10 +3115,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B80" t="n">
-        <v>286.81</v>
+        <v>302.16</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -3128,7 +3131,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-24.66</v>
+        <v>6.07</v>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
@@ -3145,10 +3148,10 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B81" t="n">
-        <v>291.19</v>
+        <v>292.03</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -3161,7 +3164,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>-12.24</v>
+        <v>-7.9</v>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
@@ -3178,10 +3181,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B82" t="n">
-        <v>302.16</v>
+        <v>291.32</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -3194,7 +3197,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6.07</v>
+        <v>-4.62</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -3211,10 +3214,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B83" t="n">
-        <v>292.03</v>
+        <v>302.08</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -3227,7 +3230,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-7.9</v>
+        <v>7.93</v>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
@@ -3244,10 +3247,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B84" t="n">
-        <v>291.32</v>
+        <v>309.9</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -3260,7 +3263,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>-4.62</v>
+        <v>18.62</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3277,10 +3280,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45827</v>
+        <v>45831</v>
       </c>
       <c r="B85" t="n">
-        <v>302.08</v>
+        <v>306.11</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -3293,7 +3296,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>7.93</v>
+        <v>19.3</v>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
@@ -3310,10 +3313,10 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B86" t="n">
-        <v>309.9</v>
+        <v>304.1</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -3326,7 +3329,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>18.62</v>
+        <v>12.91</v>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
@@ -3343,10 +3346,10 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B87" t="n">
-        <v>306.11</v>
+        <v>292.33</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -3359,7 +3362,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>19.3</v>
+        <v>-9.83</v>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
@@ -3376,10 +3379,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B88" t="n">
-        <v>304.1</v>
+        <v>302.05</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -3392,7 +3395,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>12.91</v>
+        <v>10.02</v>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
@@ -3409,10 +3412,10 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B89" t="n">
-        <v>292.33</v>
+        <v>302.26</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -3425,7 +3428,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-9.83</v>
+        <v>10.94</v>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
@@ -3442,10 +3445,10 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="B90" t="n">
-        <v>302.05</v>
+        <v>301.18</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -3458,7 +3461,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>10.02</v>
+        <v>-0.9</v>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
@@ -3475,10 +3478,10 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45835</v>
+        <v>45839</v>
       </c>
       <c r="B91" t="n">
-        <v>302.26</v>
+        <v>284.34</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -3491,7 +3494,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>10.94</v>
+        <v>-25.56</v>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
@@ -3508,10 +3511,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="B92" t="n">
-        <v>301.18</v>
+        <v>281.51</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -3524,7 +3527,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-0.9</v>
+        <v>-24.6</v>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
@@ -3541,10 +3544,10 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45839</v>
+        <v>45841</v>
       </c>
       <c r="B93" t="n">
-        <v>284.34</v>
+        <v>280.43</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -3557,9 +3560,11 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>-25.56</v>
-      </c>
-      <c r="F93" t="inlineStr"/>
+        <v>-23.67</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-1.9301</v>
+      </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
@@ -3574,10 +3579,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45840</v>
+        <v>45842</v>
       </c>
       <c r="B94" t="n">
-        <v>281.51</v>
+        <v>273.66</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -3590,9 +3595,11 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>-24.6</v>
-      </c>
-      <c r="F94" t="inlineStr"/>
+        <v>-18.67</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-2.3378</v>
+      </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
@@ -3607,10 +3614,10 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="B95" t="n">
-        <v>280.43</v>
+        <v>273.6</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -3623,10 +3630,10 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>-23.67</v>
+        <v>-28.45</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.9301</v>
+        <v>-2.1269</v>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
@@ -3642,10 +3649,10 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45842</v>
+        <v>45846</v>
       </c>
       <c r="B96" t="n">
-        <v>273.66</v>
+        <v>285.43</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -3658,10 +3665,10 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>-18.67</v>
+        <v>-16.83</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.3378</v>
+        <v>-1.0336</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
@@ -3677,10 +3684,10 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B97" t="n">
-        <v>273.6</v>
+        <v>285.51</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -3693,10 +3700,10 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>-28.45</v>
+        <v>-15.67</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.1269</v>
+        <v>-0.9959</v>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
@@ -3712,10 +3719,10 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B98" t="n">
-        <v>285.43</v>
+        <v>278.58</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -3728,10 +3735,10 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-16.83</v>
+        <v>-5.76</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.0336</v>
+        <v>-1.5348</v>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
@@ -3747,10 +3754,10 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B99" t="n">
-        <v>285.51</v>
+        <v>278.65</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -3763,10 +3770,10 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>-15.67</v>
+        <v>-2.86</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.9959</v>
+        <v>-1.46</v>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
@@ -3782,10 +3789,10 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B100" t="n">
-        <v>278.58</v>
+        <v>283.02</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -3798,10 +3805,10 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>-5.76</v>
+        <v>2.59</v>
       </c>
       <c r="F100" t="n">
-        <v>-1.5348</v>
+        <v>-1.0533</v>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
@@ -3817,10 +3824,10 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B101" t="n">
-        <v>278.65</v>
+        <v>284.44</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -3833,10 +3840,10 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>-2.86</v>
+        <v>10.78</v>
       </c>
       <c r="F101" t="n">
-        <v>-1.46</v>
+        <v>-0.909</v>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
@@ -3852,10 +3859,10 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B102" t="n">
-        <v>283.02</v>
+        <v>286.38</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -3868,10 +3875,10 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>2.59</v>
+        <v>12.78</v>
       </c>
       <c r="F102" t="n">
-        <v>-1.0533</v>
+        <v>-0.7278</v>
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
@@ -3887,10 +3894,10 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B103" t="n">
-        <v>284.44</v>
+        <v>289.93</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -3903,10 +3910,10 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>10.78</v>
+        <v>4.5</v>
       </c>
       <c r="F103" t="n">
-        <v>-0.909</v>
+        <v>-0.415</v>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
@@ -3922,10 +3929,10 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B104" t="n">
-        <v>286.38</v>
+        <v>285.32</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -3938,10 +3945,10 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>12.78</v>
+        <v>-0.19</v>
       </c>
       <c r="F104" t="n">
-        <v>-0.7278</v>
+        <v>-0.8011</v>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
@@ -3957,10 +3964,10 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B105" t="n">
-        <v>289.93</v>
+        <v>284.47</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -3973,10 +3980,10 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>4.5</v>
+        <v>5.89</v>
       </c>
       <c r="F105" t="n">
-        <v>-0.415</v>
+        <v>-0.8575</v>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
@@ -3992,10 +3999,10 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B106" t="n">
-        <v>285.32</v>
+        <v>284.43</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -4008,10 +4015,10 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>-0.19</v>
+        <v>5.78</v>
       </c>
       <c r="F106" t="n">
-        <v>-0.8011</v>
+        <v>-0.8437</v>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
@@ -4027,10 +4034,10 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B107" t="n">
-        <v>284.47</v>
+        <v>284.54</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -4043,10 +4050,10 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>5.89</v>
+        <v>1.52</v>
       </c>
       <c r="F107" t="n">
-        <v>-0.8575</v>
+        <v>-0.8181</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
@@ -4062,10 +4069,10 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B108" t="n">
-        <v>284.43</v>
+        <v>279.58</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -4078,10 +4085,10 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>5.78</v>
+        <v>-4.86</v>
       </c>
       <c r="F108" t="n">
-        <v>-0.8437</v>
+        <v>-1.2221</v>
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
@@ -4097,10 +4104,10 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B109" t="n">
-        <v>284.54</v>
+        <v>271.72</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -4113,10 +4120,10 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1.52</v>
+        <v>-14.66</v>
       </c>
       <c r="F109" t="n">
-        <v>-0.8181</v>
+        <v>-1.8211</v>
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
@@ -4132,10 +4139,10 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B110" t="n">
-        <v>279.58</v>
+        <v>271.76</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -4148,10 +4155,10 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-4.86</v>
+        <v>-18.17</v>
       </c>
       <c r="F110" t="n">
-        <v>-1.2221</v>
+        <v>-1.7373</v>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
@@ -4167,10 +4174,10 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B111" t="n">
-        <v>271.72</v>
+        <v>273.67</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -4183,10 +4190,10 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>-14.66</v>
+        <v>-11.65</v>
       </c>
       <c r="F111" t="n">
-        <v>-1.8211</v>
+        <v>-1.5216</v>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
@@ -4202,10 +4209,10 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45866</v>
+        <v>45868</v>
       </c>
       <c r="B112" t="n">
-        <v>271.76</v>
+        <v>271.75</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -4218,10 +4225,10 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>-18.17</v>
+        <v>-12.72</v>
       </c>
       <c r="F112" t="n">
-        <v>-1.7373</v>
+        <v>-1.6161</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
@@ -4237,10 +4244,10 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45867</v>
+        <v>45869</v>
       </c>
       <c r="B113" t="n">
-        <v>273.67</v>
+        <v>274.15</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -4253,10 +4260,10 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-11.65</v>
+        <v>-10.28</v>
       </c>
       <c r="F113" t="n">
-        <v>-1.5216</v>
+        <v>-1.3797</v>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
@@ -4272,10 +4279,10 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45868</v>
+        <v>45870</v>
       </c>
       <c r="B114" t="n">
-        <v>271.75</v>
+        <v>277.66</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -4288,10 +4295,10 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>-12.72</v>
+        <v>-6.88</v>
       </c>
       <c r="F114" t="n">
-        <v>-1.6161</v>
+        <v>-1.075</v>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
@@ -4307,10 +4314,10 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45869</v>
+        <v>45873</v>
       </c>
       <c r="B115" t="n">
-        <v>274.15</v>
+        <v>281.7</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -4323,10 +4330,10 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>-10.28</v>
+        <v>2.12</v>
       </c>
       <c r="F115" t="n">
-        <v>-1.3797</v>
+        <v>-0.7408</v>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
@@ -4342,10 +4349,10 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45870</v>
+        <v>45874</v>
       </c>
       <c r="B116" t="n">
-        <v>277.66</v>
+        <v>276.68</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -4358,10 +4365,10 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>-6.88</v>
+        <v>4.96</v>
       </c>
       <c r="F116" t="n">
-        <v>-1.075</v>
+        <v>-1.1193</v>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
@@ -4377,10 +4384,10 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45873</v>
+        <v>45875</v>
       </c>
       <c r="B117" t="n">
-        <v>281.7</v>
+        <v>276.72</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -4393,10 +4400,10 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>2.12</v>
+        <v>4.96</v>
       </c>
       <c r="F117" t="n">
-        <v>-0.7408</v>
+        <v>-1.0931</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
@@ -4412,10 +4419,10 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="B118" t="n">
-        <v>276.68</v>
+        <v>276.72</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -4428,10 +4435,10 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>4.96</v>
+        <v>3.05</v>
       </c>
       <c r="F118" t="n">
-        <v>-1.1193</v>
+        <v>-1.0715</v>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
@@ -4447,10 +4454,10 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="B119" t="n">
-        <v>276.72</v>
+        <v>275.25</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -4463,10 +4470,10 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>4.96</v>
+        <v>3.5</v>
       </c>
       <c r="F119" t="n">
-        <v>-1.0931</v>
+        <v>-1.1635</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
@@ -4482,10 +4489,10 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="B120" t="n">
-        <v>276.72</v>
+        <v>271.62</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -4498,10 +4505,10 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>3.05</v>
+        <v>-2.53</v>
       </c>
       <c r="F120" t="n">
-        <v>-1.0715</v>
+        <v>-1.4132</v>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
@@ -4517,10 +4524,10 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="B121" t="n">
-        <v>275.25</v>
+        <v>273.14</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -4533,10 +4540,10 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>3.5</v>
+        <v>-4.52</v>
       </c>
       <c r="F121" t="n">
-        <v>-1.1635</v>
+        <v>-1.2641</v>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
@@ -4552,10 +4559,10 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="B122" t="n">
-        <v>271.62</v>
+        <v>267.72</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -4568,10 +4575,10 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>-2.53</v>
+        <v>-13.98</v>
       </c>
       <c r="F122" t="n">
-        <v>-1.4132</v>
+        <v>-1.6348</v>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr">
@@ -4587,10 +4594,10 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="B123" t="n">
-        <v>273.14</v>
+        <v>262.79</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -4603,10 +4610,10 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>-4.52</v>
+        <v>-13.89</v>
       </c>
       <c r="F123" t="n">
-        <v>-1.2641</v>
+        <v>-1.9331</v>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
@@ -4622,10 +4629,10 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="B124" t="n">
-        <v>267.72</v>
+        <v>264.77</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -4638,10 +4645,10 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>-13.98</v>
+        <v>-11.95</v>
       </c>
       <c r="F124" t="n">
-        <v>-1.6348</v>
+        <v>-1.7245</v>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
@@ -4657,10 +4664,10 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45883</v>
+        <v>45887</v>
       </c>
       <c r="B125" t="n">
-        <v>262.79</v>
+        <v>264.77</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -4673,10 +4680,10 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-13.89</v>
+        <v>-11.95</v>
       </c>
       <c r="F125" t="n">
-        <v>-1.9331</v>
+        <v>-1.6705</v>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr">
@@ -4692,10 +4699,10 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45884</v>
+        <v>45888</v>
       </c>
       <c r="B126" t="n">
-        <v>264.77</v>
+        <v>264.82</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -4708,10 +4715,10 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>-11.95</v>
+        <v>-10.43</v>
       </c>
       <c r="F126" t="n">
-        <v>-1.7245</v>
+        <v>-1.6179</v>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr">
@@ -4727,10 +4734,10 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B127" t="n">
-        <v>264.77</v>
+        <v>263.36</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -4743,10 +4750,10 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>-11.95</v>
+        <v>-8.26</v>
       </c>
       <c r="F127" t="n">
-        <v>-1.6705</v>
+        <v>-1.6706</v>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
@@ -4762,10 +4769,10 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B128" t="n">
-        <v>264.82</v>
+        <v>267.28</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -4778,10 +4785,10 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>-10.43</v>
+        <v>-5.86</v>
       </c>
       <c r="F128" t="n">
-        <v>-1.6179</v>
+        <v>-1.3622</v>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
@@ -4797,10 +4804,10 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="B129" t="n">
-        <v>263.36</v>
+        <v>268.74</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -4813,10 +4820,10 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>-8.26</v>
+        <v>1.02</v>
       </c>
       <c r="F129" t="n">
-        <v>-1.6706</v>
+        <v>-1.2352</v>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
@@ -4826,86 +4833,54 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>CDS 5Y spread for Turkey</t>
+          <t>CDS 5Y spread for Turkey - insufficient_history_6m</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45890</v>
+        <v>45800</v>
       </c>
       <c r="B130" t="n">
-        <v>267.28</v>
+        <v>293.06</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
           <t>TRGV5YUSAC=R</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="E130" t="n">
-        <v>-5.86</v>
-      </c>
-      <c r="F130" t="n">
-        <v>-1.3622</v>
-      </c>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>Refinitiv</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>CDS 5Y spread for Turkey</t>
-        </is>
-      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45891</v>
+        <v>45803</v>
       </c>
       <c r="B131" t="n">
-        <v>268.74</v>
+        <v>830.09</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>TRGV5YUSAC=R</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="E131" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="F131" t="n">
-        <v>-1.2352</v>
-      </c>
+          <t>ARGV5YUSAC=R</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Refinitiv</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>CDS 5Y spread for Turkey - insufficient_history_6m</t>
-        </is>
-      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45800</v>
+        <v>45803</v>
       </c>
       <c r="B132" t="n">
-        <v>293.06</v>
+        <v>301.98</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -4925,252 +4900,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>country</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>metric</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>source</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>notes</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>dataset_code</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>last_updated</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>outlook</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2025-07-31</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Refinitiv</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Credit outlook for Argentina (-1=negative, 0=stable, 1=positive)</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>monthly</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2025-08-24T00:57:57.292575</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>rating</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2025-07-31</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Refinitiv</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Credit rating for Argentina (1=AAA, 22=Default)</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>monthly</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2025-08-24T00:57:57.292575</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>outlook</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2025-07-31</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Refinitiv</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Credit outlook for Turkey (-1=negative, 0=stable, 1=positive)</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>monthly</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2025-08-24T00:57:49.021833</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>rating</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2025-07-31</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Refinitiv</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Credit rating for Turkey (1=AAA, 22=Default)</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>monthly</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2025-08-24T00:57:49.021833</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11823,7 +11552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -27291,7 +27020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -27544,7 +27273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -27692,7 +27421,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2025-08-24T00:58:02.756554</t>
+          <t>2025-08-24T01:07:07.162807</t>
         </is>
       </c>
     </row>
@@ -27778,7 +27507,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2025-08-24T00:57:54.364180</t>
+          <t>2025-08-24T01:06:51.408352</t>
         </is>
       </c>
     </row>
@@ -27787,7 +27516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
